--- a/Team-Data/2013-14/2-4-2013-14.xlsx
+++ b/Team-Data/2013-14/2-4-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,61 +733,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>0.532</v>
+        <v>0.543</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J2" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.462</v>
       </c>
       <c r="L2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M2" t="n">
         <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O2" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P2" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q2" t="n">
         <v>0.785</v>
       </c>
       <c r="R2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
         <v>31.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U2" t="n">
         <v>25.7</v>
       </c>
       <c r="V2" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W2" t="n">
         <v>9</v>
@@ -729,40 +796,40 @@
         <v>4.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z2" t="n">
         <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
       </c>
       <c r="AF2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="n">
         <v>12</v>
       </c>
-      <c r="AG2" t="n">
-        <v>13</v>
-      </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -774,16 +841,16 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR2" t="n">
         <v>25</v>
@@ -801,13 +868,13 @@
         <v>22</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX2" t="n">
         <v>22</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -944,7 +1011,7 @@
         <v>25</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>26</v>
@@ -959,7 +1026,7 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-2.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
@@ -1138,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
         <v>6</v>
@@ -1183,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>0.44</v>
+        <v>0.429</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,37 +1297,37 @@
         <v>35.3</v>
       </c>
       <c r="J5" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O5" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="R5" t="n">
         <v>9</v>
       </c>
       <c r="S5" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T5" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U5" t="n">
         <v>20.4</v>
@@ -1269,10 +1336,10 @@
         <v>12.8</v>
       </c>
       <c r="W5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
         <v>5.5</v>
@@ -1281,16 +1348,16 @@
         <v>18.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.6</v>
+        <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1323,13 +1390,13 @@
         <v>22</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
         <v>28</v>
@@ -1359,13 +1426,13 @@
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
         <v>24</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.489</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I6" t="n">
         <v>34.1</v>
       </c>
       <c r="J6" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.422</v>
@@ -1427,16 +1494,16 @@
         <v>0.335</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R6" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S6" t="n">
         <v>32.5</v>
@@ -1445,43 +1512,43 @@
         <v>44.6</v>
       </c>
       <c r="U6" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="V6" t="n">
         <v>15.6</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
         <v>6.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA6" t="n">
         <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.2</v>
+        <v>92</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
@@ -1490,10 +1557,10 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1508,19 +1575,19 @@
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>13</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>13</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
         <v>13</v>
@@ -1529,7 +1596,7 @@
         <v>25</v>
       </c>
       <c r="AW6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX6" t="n">
         <v>8</v>
@@ -1541,10 +1608,10 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>-6.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>24</v>
@@ -1893,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="AW8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
         <v>25</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>14</v>
@@ -2036,7 +2103,7 @@
         <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
@@ -2057,10 +2124,10 @@
         <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS9" t="n">
         <v>5</v>
@@ -2072,10 +2139,10 @@
         <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2087,7 +2154,7 @@
         <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB9" t="n">
         <v>9</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2215,7 +2282,7 @@
         <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2233,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
         <v>4</v>
@@ -2263,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ10" t="n">
         <v>14</v>
@@ -2275,7 +2342,7 @@
         <v>16</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -2304,58 +2371,58 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="n">
         <v>29</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0.592</v>
+        <v>0.604</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>85</v>
+        <v>84.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.457</v>
+        <v>0.46</v>
       </c>
       <c r="L11" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M11" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.38</v>
+        <v>0.383</v>
       </c>
       <c r="O11" t="n">
         <v>16.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.738</v>
+        <v>0.736</v>
       </c>
       <c r="R11" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S11" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="T11" t="n">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="U11" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V11" t="n">
         <v>16.3</v>
@@ -2370,19 +2437,19 @@
         <v>4.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA11" t="n">
         <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>103</v>
+        <v>103.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,28 +2461,28 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2424,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2445,7 +2512,7 @@
         <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
         <v>24</v>
@@ -2457,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2576,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>18</v>
@@ -2606,7 +2673,7 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2639,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="n">
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>0.792</v>
+        <v>0.787</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2686,7 +2753,7 @@
         <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>80.8</v>
+        <v>81</v>
       </c>
       <c r="K13" t="n">
         <v>0.454</v>
@@ -2698,37 +2765,37 @@
         <v>19.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O13" t="n">
         <v>18.2</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
         <v>0.78</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S13" t="n">
         <v>35.2</v>
       </c>
       <c r="T13" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U13" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V13" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y13" t="n">
         <v>4.5</v>
@@ -2737,16 +2804,16 @@
         <v>20.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2764,7 +2831,7 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
@@ -2776,10 +2843,10 @@
         <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>15</v>
@@ -2800,7 +2867,7 @@
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>22</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,7 +3117,7 @@
         <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.44</v>
@@ -3059,37 +3126,37 @@
         <v>9.1</v>
       </c>
       <c r="M15" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O15" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.76</v>
+        <v>0.757</v>
       </c>
       <c r="R15" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T15" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U15" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V15" t="n">
         <v>15.1</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X15" t="n">
         <v>5.5</v>
@@ -3098,19 +3165,19 @@
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA15" t="n">
         <v>19.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.7</v>
+        <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3131,7 +3198,7 @@
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3143,19 +3210,19 @@
         <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>24</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
         <v>20</v>
@@ -3164,7 +3231,7 @@
         <v>10</v>
       </c>
       <c r="AV15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3486,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>4</v>
@@ -3504,16 +3571,16 @@
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3677,7 +3744,7 @@
         <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
         <v>17</v>
@@ -3728,7 +3795,7 @@
         <v>18</v>
       </c>
       <c r="BB18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
         <v>24</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.489</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,7 +3845,7 @@
         <v>38.6</v>
       </c>
       <c r="J19" t="n">
-        <v>88.3</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K19" t="n">
         <v>0.437</v>
@@ -3787,31 +3854,31 @@
         <v>7.6</v>
       </c>
       <c r="M19" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O19" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P19" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R19" t="n">
         <v>13</v>
       </c>
       <c r="S19" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="T19" t="n">
-        <v>46</v>
+        <v>45.8</v>
       </c>
       <c r="U19" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V19" t="n">
         <v>13.8</v>
@@ -3820,7 +3887,7 @@
         <v>8.9</v>
       </c>
       <c r="X19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y19" t="n">
         <v>5.7</v>
@@ -3832,28 +3899,28 @@
         <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
@@ -3868,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3877,13 +3944,13 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
@@ -3913,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="BC19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4232,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -4605,13 +4672,13 @@
         <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR23" t="n">
         <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
         <v>22</v>
@@ -4620,7 +4687,7 @@
         <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4769,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4784,7 +4851,7 @@
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4796,7 +4863,7 @@
         <v>12</v>
       </c>
       <c r="AT24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -4852,43 +4919,43 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.604</v>
+        <v>0.617</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L25" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M25" t="n">
         <v>25.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.369</v>
+        <v>0.371</v>
       </c>
       <c r="O25" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P25" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="Q25" t="n">
         <v>0.76</v>
@@ -4897,16 +4964,16 @@
         <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
         <v>43.5</v>
       </c>
       <c r="U25" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V25" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="W25" t="n">
         <v>8.4</v>
@@ -4921,16 +4988,16 @@
         <v>21.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.7</v>
+        <v>104.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
@@ -4945,25 +5012,25 @@
         <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ25" t="n">
         <v>8</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP25" t="n">
         <v>11</v>
@@ -4975,7 +5042,7 @@
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
         <v>13</v>
@@ -4984,7 +5051,7 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
@@ -5005,7 +5072,7 @@
         <v>6</v>
       </c>
       <c r="BC25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
@@ -5142,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-2.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
@@ -5339,7 +5406,7 @@
         <v>10</v>
       </c>
       <c r="AS27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT27" t="n">
         <v>11</v>
@@ -5348,7 +5415,7 @@
         <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>18</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>10</v>
@@ -5721,7 +5788,7 @@
         <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>26</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>-6.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
         <v>23</v>
@@ -5912,7 +5979,7 @@
         <v>15</v>
       </c>
       <c r="BB30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6076,7 +6143,7 @@
         <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-4-2013-14</t>
+          <t>2014-02-04</t>
         </is>
       </c>
     </row>
